--- a/climate-change-earth-surface-temperature-data/new/spain_region_to_confirm.xlsx
+++ b/climate-change-earth-surface-temperature-data/new/spain_region_to_confirm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\china\Documents\Master's Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezan\Documents\Master in Applied Data Science\2nd Year\MASTER THESIS\GIT THESIS\climate-change-earth-surface-temperature-data\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAE9090-734E-4023-9887-EE40C5EBD1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C923FCAB-182F-4095-99E1-955E2FC0ACA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="0" windowWidth="9330" windowHeight="7360" xr2:uid="{2C30DDA0-3499-43AF-A4E7-A57748DAEA1F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2C30DDA0-3499-43AF-A4E7-A57748DAEA1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t>'Dominio de Valdepusa',</t>
   </si>
@@ -113,9 +113,6 @@
     <t xml:space="preserve"> 'Vino de Calidad de Valtiendas'</t>
   </si>
   <si>
-    <t>Region Hit</t>
-  </si>
-  <si>
     <t>Region Found</t>
   </si>
   <si>
@@ -144,6 +141,15 @@
   </si>
   <si>
     <t>Aragón</t>
+  </si>
+  <si>
+    <t>region_hit</t>
+  </si>
+  <si>
+    <t>region_no_hit</t>
+  </si>
+  <si>
+    <t>Blank</t>
   </si>
 </sst>
 </file>
@@ -513,232 +519,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD94506A-C146-4399-8EC7-A22530337103}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
